--- a/tests/legacy_converter/fixtures/R1_basic_structure/expected/testOperation.260209.xlsx
+++ b/tests/legacy_converter/fixtures/R1_basic_structure/expected/testOperation.260209.xlsx
@@ -10,6 +10,13 @@
     <sheet name="Body" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Body Example" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="200" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="204" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="400" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="401" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="403" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="404" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="429" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="500" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -560,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
@@ -683,74 +690,364 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>testId</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>The unique test identifier</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>path</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>X-Correlation-Id</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Request correlation identifier</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>header</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Foglio16">
+    <tabColor theme="9" tint="0.5999938962981048"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="21.7109375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="18.85546875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="26.85546875" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="34.7109375" customWidth="1" style="3" min="4" max="4"/>
+    <col width="8.7109375" customWidth="1" style="3" min="5" max="5"/>
+    <col width="16" customWidth="1" style="3" min="6" max="6"/>
+    <col width="22" customWidth="1" style="3" min="7" max="7"/>
+    <col width="7.28515625" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
+    <col width="18.85546875" customWidth="1" style="3" min="10" max="10"/>
+    <col width="18.7109375" customWidth="1" style="3" min="11" max="11"/>
+    <col width="11.42578125" customWidth="1" style="3" min="12" max="12"/>
+    <col width="9.140625" customWidth="1" style="3" min="13" max="13"/>
+    <col width="14.85546875" customWidth="1" style="3" min="14" max="14"/>
+    <col width="25.28515625" customWidth="1" style="3" min="15" max="15"/>
+    <col width="9.140625" customWidth="1" style="3" min="16" max="16"/>
+    <col width="9.140625" customWidth="1" style="3" min="17" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Too many requests</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
+      <c r="I1" s="6" t="n"/>
+      <c r="J1" s="6" t="n"/>
+      <c r="K1" s="6" t="n"/>
+      <c r="L1" s="6" t="n"/>
+      <c r="M1" s="6" t="n"/>
+      <c r="N1" s="6" t="n"/>
+      <c r="O1" s="6" t="n"/>
+    </row>
+    <row r="2" ht="43.15" customFormat="1" customHeight="1" s="4">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Items Data Type 
+(Array only)</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Schema Name
+(for Type or Items Data Type = 'schema')</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Min  
+Value/Length/Item</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Max  
+Value/Length/Item</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>PatternEba</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Regex</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Allowed value</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Example</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ErrorResponse</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Foglio16">
+    <tabColor theme="9" tint="0.5999938962981048"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="21.7109375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="18.85546875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="26.85546875" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="34.7109375" customWidth="1" style="3" min="4" max="4"/>
+    <col width="8.7109375" customWidth="1" style="3" min="5" max="5"/>
+    <col width="16" customWidth="1" style="3" min="6" max="6"/>
+    <col width="22" customWidth="1" style="3" min="7" max="7"/>
+    <col width="7.28515625" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
+    <col width="18.85546875" customWidth="1" style="3" min="10" max="10"/>
+    <col width="18.7109375" customWidth="1" style="3" min="11" max="11"/>
+    <col width="11.42578125" customWidth="1" style="3" min="12" max="12"/>
+    <col width="9.140625" customWidth="1" style="3" min="13" max="13"/>
+    <col width="14.85546875" customWidth="1" style="3" min="14" max="14"/>
+    <col width="25.28515625" customWidth="1" style="3" min="15" max="15"/>
+    <col width="9.140625" customWidth="1" style="3" min="16" max="16"/>
+    <col width="9.140625" customWidth="1" style="3" min="17" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Internal Server Error</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
+      <c r="I1" s="6" t="n"/>
+      <c r="J1" s="6" t="n"/>
+      <c r="K1" s="6" t="n"/>
+      <c r="L1" s="6" t="n"/>
+      <c r="M1" s="6" t="n"/>
+      <c r="N1" s="6" t="n"/>
+      <c r="O1" s="6" t="n"/>
+    </row>
+    <row r="2" ht="43.15" customFormat="1" customHeight="1" s="4">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Items Data Type 
+(Array only)</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Schema Name
+(for Type or Items Data Type = 'schema')</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Min  
+Value/Length/Item</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Max  
+Value/Length/Item</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>PatternEba</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Regex</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Allowed value</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Example</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ErrorResponse</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
@@ -763,7 +1060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
@@ -907,12 +1204,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
   </sheetData>
   <conditionalFormatting sqref="B1 D3:D1048576">
     <cfRule type="containsText" priority="2" operator="containsText" dxfId="0" stopIfTrue="1" text="Error.">
@@ -965,7 +1256,8 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Foglio16">
+    <tabColor theme="9" tint="0.5999938962981048"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -975,110 +1267,1051 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="21.7109375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="18.85546875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="26.85546875" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="34.7109375" customWidth="1" style="3" min="4" max="4"/>
+    <col width="8.7109375" customWidth="1" style="3" min="5" max="5"/>
+    <col width="16" customWidth="1" style="3" min="6" max="6"/>
+    <col width="22" customWidth="1" style="3" min="7" max="7"/>
+    <col width="7.28515625" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
+    <col width="18.85546875" customWidth="1" style="3" min="10" max="10"/>
+    <col width="18.7109375" customWidth="1" style="3" min="11" max="11"/>
+    <col width="11.42578125" customWidth="1" style="3" min="12" max="12"/>
+    <col width="9.140625" customWidth="1" style="3" min="13" max="13"/>
+    <col width="14.85546875" customWidth="1" style="3" min="14" max="14"/>
+    <col width="25.28515625" customWidth="1" style="3" min="15" max="15"/>
+    <col width="9.140625" customWidth="1" style="3" min="16" max="16"/>
+    <col width="9.140625" customWidth="1" style="3" min="17" max="16384"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Response 200 - Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
+      <c r="I1" s="6" t="n"/>
+      <c r="J1" s="6" t="n"/>
+      <c r="K1" s="6" t="n"/>
+      <c r="L1" s="6" t="n"/>
+      <c r="M1" s="6" t="n"/>
+      <c r="N1" s="6" t="n"/>
+      <c r="O1" s="6" t="n"/>
+    </row>
+    <row r="2" ht="43.15" customFormat="1" customHeight="1" s="4">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Section</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Parent</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Items Data Type (Array only)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Schema Name (for Type or Items Data Type = 'schema'|'header')</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Items Data Type 
+(Array only)</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Schema Name
+(for Type or Items Data Type = 'schema')</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Format</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Mandatory</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Min Value/Length/Item</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Max Value/Length/Item</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Min  
+Value/Length/Item</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Max  
+Value/Length/Item</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>PatternEba</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>Regex</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr">
         <is>
           <t>Allowed value</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>Example</t>
         </is>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>testOperationResponse</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Success</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Foglio16">
+    <tabColor theme="9" tint="0.5999938962981048"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="21.7109375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="18.85546875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="26.85546875" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="34.7109375" customWidth="1" style="3" min="4" max="4"/>
+    <col width="8.7109375" customWidth="1" style="3" min="5" max="5"/>
+    <col width="16" customWidth="1" style="3" min="6" max="6"/>
+    <col width="22" customWidth="1" style="3" min="7" max="7"/>
+    <col width="7.28515625" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
+    <col width="18.85546875" customWidth="1" style="3" min="10" max="10"/>
+    <col width="18.7109375" customWidth="1" style="3" min="11" max="11"/>
+    <col width="11.42578125" customWidth="1" style="3" min="12" max="12"/>
+    <col width="9.140625" customWidth="1" style="3" min="13" max="13"/>
+    <col width="14.85546875" customWidth="1" style="3" min="14" max="14"/>
+    <col width="25.28515625" customWidth="1" style="3" min="15" max="15"/>
+    <col width="9.140625" customWidth="1" style="3" min="16" max="16"/>
+    <col width="9.140625" customWidth="1" style="3" min="17" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>No Content</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
+      <c r="I1" s="6" t="n"/>
+      <c r="J1" s="6" t="n"/>
+      <c r="K1" s="6" t="n"/>
+      <c r="L1" s="6" t="n"/>
+      <c r="M1" s="6" t="n"/>
+      <c r="N1" s="6" t="n"/>
+      <c r="O1" s="6" t="n"/>
+    </row>
+    <row r="2" ht="43.15" customFormat="1" customHeight="1" s="4">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Items Data Type 
+(Array only)</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Schema Name
+(for Type or Items Data Type = 'schema')</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Min  
+Value/Length/Item</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Max  
+Value/Length/Item</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>PatternEba</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Regex</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Allowed value</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Example</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>application/json</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>testOperationResponse</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Foglio16">
+    <tabColor theme="9" tint="0.5999938962981048"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="21.7109375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="18.85546875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="26.85546875" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="34.7109375" customWidth="1" style="3" min="4" max="4"/>
+    <col width="8.7109375" customWidth="1" style="3" min="5" max="5"/>
+    <col width="16" customWidth="1" style="3" min="6" max="6"/>
+    <col width="22" customWidth="1" style="3" min="7" max="7"/>
+    <col width="7.28515625" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
+    <col width="18.85546875" customWidth="1" style="3" min="10" max="10"/>
+    <col width="18.7109375" customWidth="1" style="3" min="11" max="11"/>
+    <col width="11.42578125" customWidth="1" style="3" min="12" max="12"/>
+    <col width="9.140625" customWidth="1" style="3" min="13" max="13"/>
+    <col width="14.85546875" customWidth="1" style="3" min="14" max="14"/>
+    <col width="25.28515625" customWidth="1" style="3" min="15" max="15"/>
+    <col width="9.140625" customWidth="1" style="3" min="16" max="16"/>
+    <col width="9.140625" customWidth="1" style="3" min="17" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Bad Request</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
+      <c r="I1" s="6" t="n"/>
+      <c r="J1" s="6" t="n"/>
+      <c r="K1" s="6" t="n"/>
+      <c r="L1" s="6" t="n"/>
+      <c r="M1" s="6" t="n"/>
+      <c r="N1" s="6" t="n"/>
+      <c r="O1" s="6" t="n"/>
+    </row>
+    <row r="2" ht="43.15" customFormat="1" customHeight="1" s="4">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Items Data Type 
+(Array only)</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Schema Name
+(for Type or Items Data Type = 'schema')</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Min  
+Value/Length/Item</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Max  
+Value/Length/Item</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>PatternEba</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Regex</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Allowed value</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Example</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ErrorResponse</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Foglio16">
+    <tabColor theme="9" tint="0.5999938962981048"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="21.7109375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="18.85546875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="26.85546875" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="34.7109375" customWidth="1" style="3" min="4" max="4"/>
+    <col width="8.7109375" customWidth="1" style="3" min="5" max="5"/>
+    <col width="16" customWidth="1" style="3" min="6" max="6"/>
+    <col width="22" customWidth="1" style="3" min="7" max="7"/>
+    <col width="7.28515625" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
+    <col width="18.85546875" customWidth="1" style="3" min="10" max="10"/>
+    <col width="18.7109375" customWidth="1" style="3" min="11" max="11"/>
+    <col width="11.42578125" customWidth="1" style="3" min="12" max="12"/>
+    <col width="9.140625" customWidth="1" style="3" min="13" max="13"/>
+    <col width="14.85546875" customWidth="1" style="3" min="14" max="14"/>
+    <col width="25.28515625" customWidth="1" style="3" min="15" max="15"/>
+    <col width="9.140625" customWidth="1" style="3" min="16" max="16"/>
+    <col width="9.140625" customWidth="1" style="3" min="17" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Unauthorized</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
+      <c r="I1" s="6" t="n"/>
+      <c r="J1" s="6" t="n"/>
+      <c r="K1" s="6" t="n"/>
+      <c r="L1" s="6" t="n"/>
+      <c r="M1" s="6" t="n"/>
+      <c r="N1" s="6" t="n"/>
+      <c r="O1" s="6" t="n"/>
+    </row>
+    <row r="2" ht="43.15" customFormat="1" customHeight="1" s="4">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Items Data Type 
+(Array only)</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Schema Name
+(for Type or Items Data Type = 'schema')</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Min  
+Value/Length/Item</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Max  
+Value/Length/Item</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>PatternEba</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Regex</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Allowed value</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Example</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ErrorResponse</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Foglio16">
+    <tabColor theme="9" tint="0.5999938962981048"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="21.7109375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="18.85546875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="26.85546875" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="34.7109375" customWidth="1" style="3" min="4" max="4"/>
+    <col width="8.7109375" customWidth="1" style="3" min="5" max="5"/>
+    <col width="16" customWidth="1" style="3" min="6" max="6"/>
+    <col width="22" customWidth="1" style="3" min="7" max="7"/>
+    <col width="7.28515625" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
+    <col width="18.85546875" customWidth="1" style="3" min="10" max="10"/>
+    <col width="18.7109375" customWidth="1" style="3" min="11" max="11"/>
+    <col width="11.42578125" customWidth="1" style="3" min="12" max="12"/>
+    <col width="9.140625" customWidth="1" style="3" min="13" max="13"/>
+    <col width="14.85546875" customWidth="1" style="3" min="14" max="14"/>
+    <col width="25.28515625" customWidth="1" style="3" min="15" max="15"/>
+    <col width="9.140625" customWidth="1" style="3" min="16" max="16"/>
+    <col width="9.140625" customWidth="1" style="3" min="17" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Forbidden</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
+      <c r="I1" s="6" t="n"/>
+      <c r="J1" s="6" t="n"/>
+      <c r="K1" s="6" t="n"/>
+      <c r="L1" s="6" t="n"/>
+      <c r="M1" s="6" t="n"/>
+      <c r="N1" s="6" t="n"/>
+      <c r="O1" s="6" t="n"/>
+    </row>
+    <row r="2" ht="43.15" customFormat="1" customHeight="1" s="4">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Items Data Type 
+(Array only)</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Schema Name
+(for Type or Items Data Type = 'schema')</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Min  
+Value/Length/Item</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Max  
+Value/Length/Item</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>PatternEba</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Regex</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Allowed value</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Example</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ErrorResponse</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Foglio16">
+    <tabColor theme="9" tint="0.5999938962981048"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="21.7109375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="18.85546875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="26.85546875" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="34.7109375" customWidth="1" style="3" min="4" max="4"/>
+    <col width="8.7109375" customWidth="1" style="3" min="5" max="5"/>
+    <col width="16" customWidth="1" style="3" min="6" max="6"/>
+    <col width="22" customWidth="1" style="3" min="7" max="7"/>
+    <col width="7.28515625" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
+    <col width="18.85546875" customWidth="1" style="3" min="10" max="10"/>
+    <col width="18.7109375" customWidth="1" style="3" min="11" max="11"/>
+    <col width="11.42578125" customWidth="1" style="3" min="12" max="12"/>
+    <col width="9.140625" customWidth="1" style="3" min="13" max="13"/>
+    <col width="14.85546875" customWidth="1" style="3" min="14" max="14"/>
+    <col width="25.28515625" customWidth="1" style="3" min="15" max="15"/>
+    <col width="9.140625" customWidth="1" style="3" min="16" max="16"/>
+    <col width="9.140625" customWidth="1" style="3" min="17" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
+      <c r="I1" s="6" t="n"/>
+      <c r="J1" s="6" t="n"/>
+      <c r="K1" s="6" t="n"/>
+      <c r="L1" s="6" t="n"/>
+      <c r="M1" s="6" t="n"/>
+      <c r="N1" s="6" t="n"/>
+      <c r="O1" s="6" t="n"/>
+    </row>
+    <row r="2" ht="43.15" customFormat="1" customHeight="1" s="4">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Items Data Type 
+(Array only)</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Schema Name
+(for Type or Items Data Type = 'schema')</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Min  
+Value/Length/Item</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Max  
+Value/Length/Item</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>PatternEba</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Regex</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Allowed value</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Example</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ErrorResponse</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>